--- a/dnd_motivations.xlsx
+++ b/dnd_motivations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\UChicago\y2\spring\scav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E438331-2085-42FE-A84D-4D4490C168D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B4AFD3-576B-4CAC-B870-4D9B75DD7AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="5025" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Make an intelligence check and answer:</t>
+  </si>
+  <si>
+    <t>Make a wisdom check and answer:</t>
+  </si>
+  <si>
+    <t>Make an arcana check and answer:</t>
+  </si>
+  <si>
+    <t>Make a history check and answer:</t>
+  </si>
+  <si>
+    <t>Make a survival check and answer:</t>
+  </si>
+  <si>
+    <t>Make an investigation check and answer:</t>
+  </si>
+  <si>
+    <t>Make an insight check and answer:</t>
   </si>
 </sst>
 </file>
@@ -345,9 +363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -359,6 +379,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
